--- a/bin/Debug/Template/Title.xlsx
+++ b/bin/Debug/Template/Title.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DOGUKAN\source\repos\J-HR_Asyen\J-HR\bin\Debug\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE61B1-95C0-4221-93E8-4F78FCF301E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CFB64D-84E6-43FE-9FAD-E20ED07A1E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2760" windowWidth="21570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="3570" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Şablon" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,6 @@
     <t>PersonelKod</t>
   </si>
   <si>
-    <t>Görev Kodu</t>
-  </si>
-  <si>
-    <t>Görev Tanımı</t>
-  </si>
-  <si>
     <t>Muhasebe Müdürü</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
     <t>İlk satır kolon ismi olmalı.</t>
   </si>
   <si>
-    <t>Görev yeri kodu veya tanımı ikisinden biri dolu olmalıdır.İkiside doluysa koda bakar.Görev adı doluysa görev adına kodu doluysa koda bakar.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -74,6 +65,15 @@
   </si>
   <si>
     <t>0110.03</t>
+  </si>
+  <si>
+    <t>Ünvan Kodu</t>
+  </si>
+  <si>
+    <t>Ünvan Tanımı</t>
+  </si>
+  <si>
+    <t>Ünvan kodu veya tanımı ikisinden biri dolu olmalıdır.İkiside doluysa koda bakar.Görev adı doluysa unvan adına kodu doluysa koda bakar.</t>
   </si>
 </sst>
 </file>
@@ -452,8 +452,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,44 +468,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -562,8 +562,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,25 +573,25 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
